--- a/db/source/system_permissions.xlsx
+++ b/db/source/system_permissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wrburgess/Projects/aaa/kc-tennis/db/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32728C-D7A5-974F-BC33-7BD9C0F62CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F068D-4933-6E48-873C-4BBD56016EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="660" windowWidth="37160" windowHeight="20780" activeTab="3" xr2:uid="{A7924D65-00DE-2544-9F97-E11FDD26EDD2}"/>
+    <workbookView xWindow="1080" yWindow="660" windowWidth="37160" windowHeight="20780" xr2:uid="{A7924D65-00DE-2544-9F97-E11FDD26EDD2}"/>
   </bookViews>
   <sheets>
     <sheet name="system_permissions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="53">
   <si>
     <t>Contact</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>wrburgess@gmail.com</t>
+  </si>
+  <si>
+    <t>copy</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6930FAF-2397-5948-B560-84F685BD8951}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2007,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>15</v>
@@ -2015,10 +2018,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>15</v>
@@ -2029,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>15</v>
@@ -2040,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -2051,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
@@ -2062,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
@@ -2073,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
@@ -2084,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
@@ -2095,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
@@ -2106,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>15</v>
@@ -2114,10 +2117,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>15</v>
@@ -2128,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
@@ -2139,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
@@ -2150,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>15</v>
@@ -2161,7 +2164,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
@@ -2172,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>15</v>
@@ -2183,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
@@ -2194,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>15</v>
@@ -2205,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
@@ -2213,10 +2216,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
@@ -2224,10 +2227,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>15</v>
@@ -2238,7 +2241,7 @@
         <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>15</v>
@@ -2246,10 +2249,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
@@ -2257,10 +2260,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>15</v>
@@ -2271,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>15</v>
@@ -2282,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>15</v>
@@ -2293,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>15</v>
@@ -2304,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
@@ -2315,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -2326,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
@@ -2337,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
@@ -2348,9 +2351,20 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2533,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2563C8-FCA3-B346-8303-FDE8EF30B49B}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/db/source/system_permissions.xlsx
+++ b/db/source/system_permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wrburgess/Projects/aaa/kc-tennis/db/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F068D-4933-6E48-873C-4BBD56016EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8FE88-52A4-F445-973A-A5630CBE3EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="660" windowWidth="37160" windowHeight="20780" xr2:uid="{A7924D65-00DE-2544-9F97-E11FDD26EDD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="54">
   <si>
     <t>Contact</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>copy</t>
+  </si>
+  <si>
+    <t>archive</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6930FAF-2397-5948-B560-84F685BD8951}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,10 +1218,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1226,10 +1229,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1240,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1251,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1262,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1273,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1295,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1306,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1314,10 +1317,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1325,10 +1328,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -1339,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1350,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1361,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -1372,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -1383,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -1394,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -1405,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -1413,10 +1416,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -1435,10 +1438,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -1446,10 +1449,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
@@ -1460,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
@@ -1471,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1482,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -1493,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -1504,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -1523,10 +1526,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -1534,10 +1537,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -1545,10 +1548,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -1559,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -1570,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -1581,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -1592,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -1603,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -1614,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -1622,10 +1625,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -1633,10 +1636,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -1644,10 +1647,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -1655,10 +1658,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -1677,10 +1680,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
@@ -1691,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -1702,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>15</v>
@@ -1713,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -1721,10 +1724,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -1732,10 +1735,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -1743,10 +1746,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -1765,10 +1768,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -1776,10 +1779,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -1790,7 +1793,7 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -1801,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -1812,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -1820,10 +1823,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -1831,10 +1834,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
@@ -1842,10 +1845,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
@@ -1864,10 +1867,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
@@ -1875,10 +1878,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
@@ -1889,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
@@ -1900,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>15</v>
@@ -1911,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
@@ -1919,10 +1922,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
@@ -1930,10 +1933,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>15</v>
@@ -1941,10 +1944,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>15</v>
@@ -1952,10 +1955,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>15</v>
@@ -1963,10 +1966,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>15</v>
@@ -1974,10 +1977,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>15</v>
@@ -1988,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>15</v>
@@ -1999,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
@@ -2010,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>15</v>
@@ -2021,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>15</v>
@@ -2029,10 +2032,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>15</v>
@@ -2040,10 +2043,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -2051,10 +2054,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
@@ -2062,10 +2065,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
@@ -2073,10 +2076,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
@@ -2084,10 +2087,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
@@ -2098,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
@@ -2109,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>15</v>
@@ -2120,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>15</v>
@@ -2128,10 +2131,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
@@ -2139,10 +2142,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
@@ -2150,10 +2153,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>15</v>
@@ -2161,10 +2164,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
@@ -2172,10 +2175,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>15</v>
@@ -2183,10 +2186,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
@@ -2197,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>15</v>
@@ -2208,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
@@ -2219,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
@@ -2227,10 +2230,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>15</v>
@@ -2238,10 +2241,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>15</v>
@@ -2249,10 +2252,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
@@ -2263,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>15</v>
@@ -2271,10 +2274,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>15</v>
@@ -2282,10 +2285,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>15</v>
@@ -2293,10 +2296,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>15</v>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -2326,10 +2329,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
@@ -2362,9 +2365,119 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>15</v>
       </c>
     </row>
